--- a/比赛记录/2024 APMCM/数据/2.xlsx
+++ b/比赛记录/2024 APMCM/数据/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12800" windowHeight="12080"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Years</t>
+  </si>
+  <si>
+    <t>全球宠物食品市场规模（十亿美元）</t>
+  </si>
+  <si>
+    <t>宠物食品每单位价格</t>
+  </si>
+  <si>
+    <t>全球宠物食品销售渠道份额（线上）</t>
+  </si>
+  <si>
+    <t>全球宠物食品销售渠道份额（线下）</t>
+  </si>
+  <si>
+    <t>全球宠物食品市场收入增长变化(百分比)</t>
+  </si>
+  <si>
+    <t>全球宠物食品平均价格</t>
   </si>
   <si>
     <t>Cat (America)</t>
@@ -60,14 +78,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,154 +534,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -990,157 +1004,277 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="12.4166666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.9166666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="2" max="10" width="12.4166666666667" customWidth="1"/>
+    <col min="11" max="11" width="11.9166666666667" customWidth="1"/>
+    <col min="12" max="12" width="10.9166666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="42" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
       <c r="B2" s="1">
+        <v>98.57</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.26</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
         <v>9420</v>
       </c>
-      <c r="C2" s="1">
+      <c r="K2" s="1">
         <v>8970</v>
       </c>
-      <c r="D2">
+      <c r="L2">
         <v>1300</v>
       </c>
-      <c r="E2">
+      <c r="M2">
         <v>740</v>
       </c>
-      <c r="F2">
+      <c r="N2">
         <v>1470</v>
       </c>
-      <c r="G2">
+      <c r="O2">
         <v>1010</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
+        <v>111.9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>94.7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11.72</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
         <v>6500</v>
       </c>
-      <c r="C3" s="1">
+      <c r="K3" s="1">
         <v>8500</v>
       </c>
-      <c r="D3">
+      <c r="L3">
         <v>1490</v>
       </c>
-      <c r="E3">
+      <c r="M3">
         <v>775</v>
       </c>
-      <c r="F3">
+      <c r="N3">
         <v>1570</v>
       </c>
-      <c r="G3">
+      <c r="O3">
         <v>1070</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2021</v>
       </c>
       <c r="B4" s="1">
+        <v>121</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.55</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>94</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11.47</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.55</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
         <v>9420</v>
       </c>
-      <c r="C4" s="1">
+      <c r="K4" s="1">
         <v>8970</v>
       </c>
-      <c r="D4">
+      <c r="L4">
         <v>1510</v>
       </c>
-      <c r="E4">
+      <c r="M4">
         <v>750</v>
       </c>
-      <c r="F4">
+      <c r="N4">
         <v>1670</v>
       </c>
-      <c r="G4">
+      <c r="O4">
         <v>1030</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>2022</v>
       </c>
       <c r="B5" s="1">
+        <v>133.7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>93.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15.69</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <v>7380</v>
       </c>
-      <c r="C5" s="1">
+      <c r="K5" s="1">
         <v>8970</v>
       </c>
-      <c r="D5">
+      <c r="L5">
         <v>1490</v>
       </c>
-      <c r="E5">
+      <c r="M5">
         <v>760</v>
       </c>
-      <c r="F5">
+      <c r="N5">
         <v>1520</v>
       </c>
-      <c r="G5">
+      <c r="O5">
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>2023</v>
       </c>
       <c r="B6" s="1">
+        <v>143.6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>92.6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12.15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
         <v>7380</v>
       </c>
-      <c r="C6" s="1">
+      <c r="K6" s="1">
         <v>8010</v>
       </c>
-      <c r="D6">
+      <c r="L6">
         <v>1660</v>
       </c>
-      <c r="E6">
+      <c r="M6">
         <v>990</v>
       </c>
-      <c r="F6">
+      <c r="N6">
         <v>1570</v>
       </c>
-      <c r="G6">
+      <c r="O6">
         <v>1050</v>
       </c>
     </row>

--- a/比赛记录/2024 APMCM/数据/2.xlsx
+++ b/比赛记录/2024 APMCM/数据/2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Years</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>全球宠物食品平均价格</t>
+  </si>
+  <si>
+    <t>Cat (China)</t>
+  </si>
+  <si>
+    <t>Dog (China)</t>
   </si>
   <si>
     <t>Cat (America)</t>
@@ -1007,7 +1013,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1042,25 +1048,29 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1085,8 +1095,12 @@
       <c r="G2" s="1">
         <v>2.26</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2">
+        <v>4412</v>
+      </c>
+      <c r="I2">
+        <v>5503</v>
+      </c>
       <c r="J2" s="1">
         <v>9420</v>
       </c>
@@ -1128,8 +1142,12 @@
       <c r="G3" s="1">
         <v>2.4</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3">
+        <v>4862</v>
+      </c>
+      <c r="I3">
+        <v>5222</v>
+      </c>
       <c r="J3" s="1">
         <v>6500</v>
       </c>
@@ -1171,8 +1189,12 @@
       <c r="G4" s="1">
         <v>2.55</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4">
+        <v>5806</v>
+      </c>
+      <c r="I4">
+        <v>5429</v>
+      </c>
       <c r="J4" s="1">
         <v>9420</v>
       </c>
@@ -1214,8 +1236,12 @@
       <c r="G5" s="1">
         <v>2.7</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5">
+        <v>6536</v>
+      </c>
+      <c r="I5">
+        <v>5119</v>
+      </c>
       <c r="J5" s="1">
         <v>7380</v>
       </c>
@@ -1257,8 +1283,12 @@
       <c r="G6" s="1">
         <v>2.79</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6">
+        <v>6980</v>
+      </c>
+      <c r="I6">
+        <v>5175</v>
+      </c>
       <c r="J6" s="1">
         <v>7380</v>
       </c>

--- a/比赛记录/2024 APMCM/数据/2.xlsx
+++ b/比赛记录/2024 APMCM/数据/2.xlsx
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
